--- a/jpcore-r4/feature/swg2-diagnosticreport-radiology/ValueSet-jp-physicalexamcode-vs.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticreport-radiology/ValueSet-jp-physicalexamcode-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T08:52:30+00:00</t>
+    <t>2022-08-31T10:13:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-diagnosticreport-radiology/ValueSet-jp-physicalexamcode-vs.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticreport-radiology/ValueSet-jp-physicalexamcode-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T10:13:48+00:00</t>
+    <t>2022-09-01T00:29:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>身体所見の区分を表すコード</t>
+    <t>身体所見の区分を表す値セット</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/jpcore-r4/feature/swg2-diagnosticreport-radiology/ValueSet-jp-physicalexamcode-vs.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticreport-radiology/ValueSet-jp-physicalexamcode-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T00:29:56+00:00</t>
+    <t>2022-09-01T02:21:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
